--- a/DB/resultados_quantitativos.xlsx
+++ b/DB/resultados_quantitativos.xlsx
@@ -502,10 +502,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="C2" t="n">
-        <v>22.02</v>
+        <v>22.01</v>
       </c>
       <c r="D2" t="n">
         <v>22</v>
@@ -523,17 +523,17 @@
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="J2" t="n">
-        <v>10.04</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0.14</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(19.0), 'Q2': np.float64(22.0), 'Q3': np.float64(25.0)}</t>
+          <t>{'Q1': np.float64(19.0), 'Q2': np.float64(22.0), 'Q3': np.float64(25.0), 'Q4': np.float64(27.0)}</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="C3" t="n">
-        <v>6.49</v>
+        <v>6.5</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -568,21 +568,21 @@
         <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>3.44</v>
+        <v>3.47</v>
       </c>
       <c r="J3" t="n">
-        <v>11.83</v>
+        <v>12.06</v>
       </c>
       <c r="K3" t="n">
         <v>0.53</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(4.0), 'Q2': np.float64(6.0), 'Q3': np.float64(9.0)}</t>
+          <t>{'Q1': np.float64(3.0), 'Q2': np.float64(7.0), 'Q3': np.float64(10.0), 'Q4': np.float64(12.0)}</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="C4" t="n">
-        <v>4.49</v>
+        <v>4.46</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -613,21 +613,21 @@
         <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="J4" t="n">
-        <v>5.25</v>
+        <v>5.17</v>
       </c>
       <c r="K4" t="n">
         <v>0.51</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(3.0), 'Q2': np.float64(5.0), 'Q3': np.float64(6.0)}</t>
+          <t>{'Q1': np.float64(2.0), 'Q2': np.float64(4.0), 'Q3': np.float64(6.0), 'Q4': np.float64(8.0)}</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="C5" t="n">
-        <v>3.98</v>
+        <v>4.08</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -658,17 +658,17 @@
         <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="J5" t="n">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="K5" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(2.0), 'Q2': np.float64(4.0), 'Q3': np.float64(6.0)}</t>
+          <t>{'Q1': np.float64(2.0), 'Q2': np.float64(4.0), 'Q3': np.float64(6.0), 'Q4': np.float64(8.0)}</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="C6" t="n">
-        <v>13.9</v>
+        <v>14.09</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -703,17 +703,17 @@
         <v>22</v>
       </c>
       <c r="I6" t="n">
-        <v>6.61</v>
+        <v>6.67</v>
       </c>
       <c r="J6" t="n">
-        <v>43.7</v>
+        <v>44.51</v>
       </c>
       <c r="K6" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(8.0), 'Q2': np.float64(14.0), 'Q3': np.float64(20.0)}</t>
+          <t>{'Q1': np.float64(8.0), 'Q2': np.float64(14.0), 'Q3': np.float64(20.0), 'Q4': np.float64(25.0)}</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -727,16 +727,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="C7" t="n">
-        <v>4.02</v>
+        <v>3.93</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -748,17 +748,17 @@
         <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="J7" t="n">
-        <v>6.64</v>
+        <v>6.59</v>
       </c>
       <c r="K7" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(2.0), 'Q2': np.float64(4.0), 'Q3': np.float64(6.0)}</t>
+          <t>{'Q1': np.float64(2.0), 'Q2': np.float64(4.0), 'Q3': np.float64(6.0), 'Q4': np.float64(8.0)}</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -772,16 +772,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="C8" t="n">
-        <v>5.54</v>
+        <v>5.53</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -793,17 +793,17 @@
         <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="J8" t="n">
-        <v>8.33</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.52</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(3.0), 'Q2': np.float64(6.0), 'Q3': np.float64(8.0)}</t>
+          <t>{'Q1': np.float64(3.0), 'Q2': np.float64(5.0), 'Q3': np.float64(8.0), 'Q4': np.float64(10.0)}</t>
         </is>
       </c>
       <c r="M8" t="n">

--- a/DB/resultados_quantitativos.xlsx
+++ b/DB/resultados_quantitativos.xlsx
@@ -505,35 +505,35 @@
         <v>6000</v>
       </c>
       <c r="C2" t="n">
-        <v>22.01</v>
+        <v>22.93</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>3.16</v>
+        <v>3.78</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>14.28</v>
       </c>
       <c r="K2" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(19.0), 'Q2': np.float64(22.0), 'Q3': np.float64(25.0), 'Q4': np.float64(27.0)}</t>
+          <t>{'Q1': np.float64(20.0), 'Q2': np.float64(23.0), 'Q3': np.float64(26.0), 'Q4': np.float64(29.0)}</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -550,13 +550,13 @@
         <v>6000</v>
       </c>
       <c r="C3" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="D3" t="n">
         <v>6.5</v>
       </c>
-      <c r="D3" t="n">
-        <v>7</v>
-      </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -568,21 +568,21 @@
         <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>3.47</v>
+        <v>3.46</v>
       </c>
       <c r="J3" t="n">
-        <v>12.06</v>
+        <v>11.96</v>
       </c>
       <c r="K3" t="n">
         <v>0.53</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(3.0), 'Q2': np.float64(7.0), 'Q3': np.float64(10.0), 'Q4': np.float64(12.0)}</t>
+          <t>{'Q1': np.float64(4.0), 'Q2': np.float64(6.5), 'Q3': np.float64(10.0), 'Q4': np.float64(12.0)}</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -595,13 +595,13 @@
         <v>6000</v>
       </c>
       <c r="C4" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -613,10 +613,10 @@
         <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="J4" t="n">
-        <v>5.17</v>
+        <v>5.24</v>
       </c>
       <c r="K4" t="n">
         <v>0.51</v>
@@ -640,13 +640,13 @@
         <v>6000</v>
       </c>
       <c r="C5" t="n">
-        <v>4.08</v>
+        <v>3.98</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>2.58</v>
       </c>
       <c r="J5" t="n">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="K5" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         <v>6000</v>
       </c>
       <c r="C6" t="n">
-        <v>14.09</v>
+        <v>13.99</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -703,13 +703,13 @@
         <v>22</v>
       </c>
       <c r="I6" t="n">
-        <v>6.67</v>
+        <v>6.71</v>
       </c>
       <c r="J6" t="n">
-        <v>44.51</v>
+        <v>44.96</v>
       </c>
       <c r="K6" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -730,13 +730,13 @@
         <v>6000</v>
       </c>
       <c r="C7" t="n">
-        <v>3.93</v>
+        <v>3.96</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>2.57</v>
       </c>
       <c r="J7" t="n">
-        <v>6.59</v>
+        <v>6.63</v>
       </c>
       <c r="K7" t="n">
         <v>0.65</v>
@@ -775,13 +775,13 @@
         <v>6000</v>
       </c>
       <c r="C8" t="n">
-        <v>5.53</v>
+        <v>5.47</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -793,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.32</v>
       </c>
       <c r="K8" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>

--- a/DB/resultados_quantitativos.xlsx
+++ b/DB/resultados_quantitativos.xlsx
@@ -505,13 +505,13 @@
         <v>6000</v>
       </c>
       <c r="C2" t="n">
-        <v>22.93</v>
+        <v>22.96</v>
       </c>
       <c r="D2" t="n">
         <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
@@ -550,13 +550,13 @@
         <v>6000</v>
       </c>
       <c r="C3" t="n">
-        <v>6.52</v>
+        <v>6.49</v>
       </c>
       <c r="D3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -571,14 +571,14 @@
         <v>3.46</v>
       </c>
       <c r="J3" t="n">
-        <v>11.96</v>
+        <v>11.94</v>
       </c>
       <c r="K3" t="n">
         <v>0.53</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(4.0), 'Q2': np.float64(6.5), 'Q3': np.float64(10.0), 'Q4': np.float64(12.0)}</t>
+          <t>{'Q1': np.float64(4.0), 'Q2': np.float64(6.0), 'Q3': np.float64(10.0), 'Q4': np.float64(12.0)}</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -595,7 +595,7 @@
         <v>6000</v>
       </c>
       <c r="C4" t="n">
-        <v>4.48</v>
+        <v>4.45</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -613,10 +613,10 @@
         <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
-        <v>5.24</v>
+        <v>5.21</v>
       </c>
       <c r="K4" t="n">
         <v>0.51</v>
@@ -640,13 +640,13 @@
         <v>6000</v>
       </c>
       <c r="C5" t="n">
-        <v>3.98</v>
+        <v>4.01</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="J5" t="n">
-        <v>6.66</v>
+        <v>6.73</v>
       </c>
       <c r="K5" t="n">
         <v>0.65</v>
@@ -685,13 +685,13 @@
         <v>6000</v>
       </c>
       <c r="C6" t="n">
-        <v>13.99</v>
+        <v>14.09</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -703,10 +703,10 @@
         <v>22</v>
       </c>
       <c r="I6" t="n">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="J6" t="n">
-        <v>44.96</v>
+        <v>44.93</v>
       </c>
       <c r="K6" t="n">
         <v>0.48</v>
@@ -736,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>2.57</v>
       </c>
       <c r="J7" t="n">
-        <v>6.63</v>
+        <v>6.6</v>
       </c>
       <c r="K7" t="n">
         <v>0.65</v>
@@ -775,13 +775,13 @@
         <v>6000</v>
       </c>
       <c r="C8" t="n">
-        <v>5.47</v>
+        <v>5.52</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -793,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="J8" t="n">
-        <v>8.32</v>
+        <v>8.26</v>
       </c>
       <c r="K8" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>

--- a/DB/resultados_quantitativos.xlsx
+++ b/DB/resultados_quantitativos.xlsx
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6000</v>
+        <v>217</v>
       </c>
       <c r="C2" t="n">
-        <v>22.96</v>
+        <v>22.95</v>
       </c>
       <c r="D2" t="n">
         <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
@@ -523,13 +523,13 @@
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>3.78</v>
+        <v>3.49</v>
       </c>
       <c r="J2" t="n">
-        <v>14.28</v>
+        <v>12.17</v>
       </c>
       <c r="K2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6000</v>
+        <v>217</v>
       </c>
       <c r="C3" t="n">
-        <v>6.49</v>
+        <v>6.21</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -568,21 +568,21 @@
         <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>3.46</v>
+        <v>3.63</v>
       </c>
       <c r="J3" t="n">
-        <v>11.94</v>
+        <v>13.19</v>
       </c>
       <c r="K3" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(4.0), 'Q2': np.float64(6.0), 'Q3': np.float64(10.0), 'Q4': np.float64(12.0)}</t>
+          <t>{'Q1': np.float64(3.0), 'Q2': np.float64(5.0), 'Q3': np.float64(10.0), 'Q4': np.float64(12.0)}</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6000</v>
+        <v>217</v>
       </c>
       <c r="C4" t="n">
-        <v>4.45</v>
+        <v>4.57</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -613,21 +613,21 @@
         <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="J4" t="n">
-        <v>5.21</v>
+        <v>4.58</v>
       </c>
       <c r="K4" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(2.0), 'Q2': np.float64(4.0), 'Q3': np.float64(6.0), 'Q4': np.float64(8.0)}</t>
+          <t>{'Q1': np.float64(3.0), 'Q2': np.float64(5.0), 'Q3': np.float64(6.0), 'Q4': np.float64(8.0)}</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -637,16 +637,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6000</v>
+        <v>217</v>
       </c>
       <c r="C5" t="n">
-        <v>4.01</v>
+        <v>3.76</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -658,21 +658,21 @@
         <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.59</v>
+        <v>2.81</v>
       </c>
       <c r="J5" t="n">
-        <v>6.73</v>
+        <v>7.9</v>
       </c>
       <c r="K5" t="n">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(2.0), 'Q2': np.float64(4.0), 'Q3': np.float64(6.0), 'Q4': np.float64(8.0)}</t>
+          <t>{'Q1': np.float64(1.0), 'Q2': np.float64(4.0), 'Q3': np.float64(6.0), 'Q4': np.float64(8.0)}</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6000</v>
+        <v>217</v>
       </c>
       <c r="C6" t="n">
-        <v>14.09</v>
+        <v>13.96</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -703,21 +703,21 @@
         <v>22</v>
       </c>
       <c r="I6" t="n">
-        <v>6.7</v>
+        <v>6.48</v>
       </c>
       <c r="J6" t="n">
-        <v>44.93</v>
+        <v>41.93</v>
       </c>
       <c r="K6" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(8.0), 'Q2': np.float64(14.0), 'Q3': np.float64(20.0), 'Q4': np.float64(25.0)}</t>
+          <t>{'Q1': np.float64(9.0), 'Q2': np.float64(14.0), 'Q3': np.float64(20.0), 'Q4': np.float64(25.0)}</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -727,16 +727,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6000</v>
+        <v>217</v>
       </c>
       <c r="C7" t="n">
-        <v>3.96</v>
+        <v>4.06</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -748,13 +748,13 @@
         <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="J7" t="n">
-        <v>6.6</v>
+        <v>6.73</v>
       </c>
       <c r="K7" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -772,10 +772,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6000</v>
+        <v>217</v>
       </c>
       <c r="C8" t="n">
-        <v>5.52</v>
+        <v>5.48</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
@@ -793,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>2.87</v>
+        <v>2.99</v>
       </c>
       <c r="J8" t="n">
-        <v>8.26</v>
+        <v>8.93</v>
       </c>
       <c r="K8" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>

--- a/DB/resultados_quantitativos.xlsx
+++ b/DB/resultados_quantitativos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,13 +505,13 @@
         <v>217</v>
       </c>
       <c r="C2" t="n">
-        <v>22.95</v>
+        <v>22.91</v>
       </c>
       <c r="D2" t="n">
         <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
@@ -523,21 +523,21 @@
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>3.49</v>
+        <v>3.91</v>
       </c>
       <c r="J2" t="n">
-        <v>12.17</v>
+        <v>15.31</v>
       </c>
       <c r="K2" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(20.0), 'Q2': np.float64(23.0), 'Q3': np.float64(26.0), 'Q4': np.float64(29.0)}</t>
+          <t>{'Q1': np.float64(19.0), 'Q2': np.float64(23.0), 'Q3': np.float64(26.0), 'Q4': np.float64(29.0)}</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -550,10 +550,10 @@
         <v>217</v>
       </c>
       <c r="C3" t="n">
-        <v>6.21</v>
+        <v>6.2</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -568,245 +568,200 @@
         <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>3.63</v>
+        <v>3.51</v>
       </c>
       <c r="J3" t="n">
-        <v>13.19</v>
+        <v>12.29</v>
       </c>
       <c r="K3" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(3.0), 'Q2': np.float64(5.0), 'Q3': np.float64(10.0), 'Q4': np.float64(12.0)}</t>
+          <t>{'Q1': np.float64(3.0), 'Q2': np.float64(6.0), 'Q3': np.float64(9.0), 'Q4': np.float64(12.0)}</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>217</v>
       </c>
       <c r="C4" t="n">
-        <v>4.57</v>
+        <v>4.33</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="J4" t="n">
-        <v>4.58</v>
+        <v>6.67</v>
       </c>
       <c r="K4" t="n">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(3.0), 'Q2': np.float64(5.0), 'Q3': np.float64(6.0), 'Q4': np.float64(8.0)}</t>
+          <t>{'Q1': np.float64(2.0), 'Q2': np.float64(4.0), 'Q3': np.float64(7.0), 'Q4': np.float64(8.0)}</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>217</v>
       </c>
       <c r="C5" t="n">
-        <v>3.76</v>
+        <v>13.23</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I5" t="n">
-        <v>2.81</v>
+        <v>6.45</v>
       </c>
       <c r="J5" t="n">
-        <v>7.9</v>
+        <v>41.58</v>
       </c>
       <c r="K5" t="n">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(1.0), 'Q2': np.float64(4.0), 'Q3': np.float64(6.0), 'Q4': np.float64(8.0)}</t>
+          <t>{'Q1': np.float64(7.0), 'Q2': np.float64(13.0), 'Q3': np.float64(19.0), 'Q4': np.float64(25.0)}</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Q9</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>217</v>
       </c>
       <c r="C6" t="n">
-        <v>13.96</v>
+        <v>4.06</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>6.48</v>
+        <v>2.59</v>
       </c>
       <c r="J6" t="n">
-        <v>41.93</v>
+        <v>6.71</v>
       </c>
       <c r="K6" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(9.0), 'Q2': np.float64(14.0), 'Q3': np.float64(20.0), 'Q4': np.float64(25.0)}</t>
+          <t>{'Q1': np.float64(2.0), 'Q2': np.float64(4.0), 'Q3': np.float64(6.0), 'Q4': np.float64(8.0)}</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Q11</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>217</v>
       </c>
       <c r="C7" t="n">
-        <v>4.06</v>
+        <v>5.65</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>2.59</v>
+        <v>2.97</v>
       </c>
       <c r="J7" t="n">
-        <v>6.73</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(2.0), 'Q2': np.float64(4.0), 'Q3': np.float64(6.0), 'Q4': np.float64(8.0)}</t>
+          <t>{'Q1': np.float64(3.0), 'Q2': np.float64(6.0), 'Q3': np.float64(8.0), 'Q4': np.float64(10.0)}</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Q13</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>217</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>{'Q1': np.float64(3.0), 'Q2': np.float64(5.0), 'Q3': np.float64(8.0), 'Q4': np.float64(10.0)}</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
         <v>5</v>
       </c>
     </row>

--- a/DB/resultados_quantitativos.xlsx
+++ b/DB/resultados_quantitativos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,270 +498,45 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>22.91</v>
+        <v>6.43</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>3.91</v>
+        <v>3.15</v>
       </c>
       <c r="J2" t="n">
-        <v>15.31</v>
+        <v>9.9</v>
       </c>
       <c r="K2" t="n">
-        <v>0.17</v>
+        <v>0.49</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{'Q1': np.float64(19.0), 'Q2': np.float64(23.0), 'Q3': np.float64(26.0), 'Q4': np.float64(29.0)}</t>
+          <t>{'Q1': np.float64(4.0), 'Q2': np.float64(7.0), 'Q3': np.float64(9.0), 'Q4': np.float64(12.0)}</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>217</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>{'Q1': np.float64(3.0), 'Q2': np.float64(6.0), 'Q3': np.float64(9.0), 'Q4': np.float64(12.0)}</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Q7</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>217</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>{'Q1': np.float64(2.0), 'Q2': np.float64(4.0), 'Q3': np.float64(7.0), 'Q4': np.float64(8.0)}</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>217</v>
-      </c>
-      <c r="C5" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>25</v>
-      </c>
-      <c r="H5" t="n">
-        <v>22</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="J5" t="n">
-        <v>41.58</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>{'Q1': np.float64(7.0), 'Q2': np.float64(13.0), 'Q3': np.float64(19.0), 'Q4': np.float64(25.0)}</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Q11</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>217</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>{'Q1': np.float64(2.0), 'Q2': np.float64(4.0), 'Q3': np.float64(6.0), 'Q4': np.float64(8.0)}</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Q13</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>217</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>{'Q1': np.float64(3.0), 'Q2': np.float64(6.0), 'Q3': np.float64(8.0), 'Q4': np.float64(10.0)}</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
         <v>5</v>
       </c>
     </row>
